--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T16:55:37+00:00</t>
+    <t>2021-10-07T17:11:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T17:11:40+00:00</t>
+    <t>2021-10-07T17:12:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T17:12:16+00:00</t>
+    <t>2021-10-07T20:30:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T20:30:30+00:00</t>
+    <t>2021-10-07T20:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T20:36:19+00:00</t>
+    <t>2021-10-07T20:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T20:36:43+00:00</t>
+    <t>2021-10-07T21:02:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T21:02:10+00:00</t>
+    <t>2021-10-07T21:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T21:11:53+00:00</t>
+    <t>2021-10-07T21:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T22:52:28+00:00</t>
+    <t>2021-10-12T07:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T07:19:41+00:00</t>
+    <t>2021-10-12T09:47:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T09:47:10+00:00</t>
+    <t>2021-10-12T12:09:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T12:09:14+00:00</t>
+    <t>2021-10-12T12:33:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T12:33:34+00:00</t>
+    <t>2021-10-12T17:20:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T17:20:00+00:00</t>
+    <t>2021-10-12T17:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T17:32:20+00:00</t>
+    <t>2021-10-12T18:03:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T18:03:57+00:00</t>
+    <t>2021-10-12T18:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T18:15:52+00:00</t>
+    <t>2021-10-13T21:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>EventStatus value set restricted to codes not-done, completed and unknown</t>
+    <t>EventStatus value set restricted to codes not-done, active, completed and unknown</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>unknown</t>
+  </si>
+  <si>
+    <t>in-progress</t>
   </si>
   <si>
     <t/>
@@ -362,7 +365,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,16 +405,22 @@
       <c r="A5" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>28</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
         <v>29</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
         <v>30</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T21:31:05+00:00</t>
+    <t>2021-10-13T21:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T21:39:19+00:00</t>
+    <t>2021-10-15T12:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-15T12:18:04+00:00</t>
+    <t>2021-10-19T07:51:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T07:51:56+00:00</t>
+    <t>2021-10-19T09:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T09:50:53+00:00</t>
+    <t>2021-10-19T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T15:41:32+00:00</t>
+    <t>2021-10-19T21:05:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T21:05:56+00:00</t>
+    <t>2021-10-19T21:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T21:09:33+00:00</t>
+    <t>2021-10-19T21:35:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
